--- a/natmiOut/OldD4/LR-pairs_lrc2p/Angptl2-Itga5.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Angptl2-Itga5.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.8308434055199</v>
+        <v>3.402403</v>
       </c>
       <c r="H2">
-        <v>2.8308434055199</v>
+        <v>10.207209</v>
       </c>
       <c r="I2">
-        <v>0.02992460753882211</v>
+        <v>0.03316898713485919</v>
       </c>
       <c r="J2">
-        <v>0.02992460753882211</v>
+        <v>0.03864740487441061</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.9904444842906</v>
+        <v>33.211442</v>
       </c>
       <c r="N2">
-        <v>25.9904444842906</v>
+        <v>99.634326</v>
       </c>
       <c r="O2">
-        <v>0.1889815626272723</v>
+        <v>0.211580186305583</v>
       </c>
       <c r="P2">
-        <v>0.1889815626272723</v>
+        <v>0.2175281749633597</v>
       </c>
       <c r="Q2">
-        <v>73.5748783748851</v>
+        <v>112.998709895126</v>
       </c>
       <c r="R2">
-        <v>73.5748783748851</v>
+        <v>1016.988389056134</v>
       </c>
       <c r="S2">
-        <v>0.005655199093694456</v>
+        <v>0.007017900477560992</v>
       </c>
       <c r="T2">
-        <v>0.005655199093694456</v>
+        <v>0.00840689944940059</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.8308434055199</v>
+        <v>3.402403</v>
       </c>
       <c r="H3">
-        <v>2.8308434055199</v>
+        <v>10.207209</v>
       </c>
       <c r="I3">
-        <v>0.02992460753882211</v>
+        <v>0.03316898713485919</v>
       </c>
       <c r="J3">
-        <v>0.02992460753882211</v>
+        <v>0.03864740487441061</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>46.7431270360019</v>
+        <v>51.17424933333334</v>
       </c>
       <c r="N3">
-        <v>46.7431270360019</v>
+        <v>153.522748</v>
       </c>
       <c r="O3">
-        <v>0.339878342391875</v>
+        <v>0.3260158715178649</v>
       </c>
       <c r="P3">
-        <v>0.339878342391875</v>
+        <v>0.3351809012869699</v>
       </c>
       <c r="Q3">
-        <v>132.3224729232449</v>
+        <v>174.1154194544813</v>
       </c>
       <c r="R3">
-        <v>132.3224729232449</v>
+        <v>1567.038775090332</v>
       </c>
       <c r="S3">
-        <v>0.01017072600702226</v>
+        <v>0.01081361624813597</v>
       </c>
       <c r="T3">
-        <v>0.01017072600702226</v>
+        <v>0.01295387199820738</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.8308434055199</v>
+        <v>3.402403</v>
       </c>
       <c r="H4">
-        <v>2.8308434055199</v>
+        <v>10.207209</v>
       </c>
       <c r="I4">
-        <v>0.02992460753882211</v>
+        <v>0.03316898713485919</v>
       </c>
       <c r="J4">
-        <v>0.02992460753882211</v>
+        <v>0.03864740487441061</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.5985642891658</v>
+        <v>22.19450366666666</v>
       </c>
       <c r="N4">
-        <v>20.5985642891658</v>
+        <v>66.58351099999999</v>
       </c>
       <c r="O4">
-        <v>0.149776155986781</v>
+        <v>0.1413945597650736</v>
       </c>
       <c r="P4">
-        <v>0.149776155986781</v>
+        <v>0.1453694746776606</v>
       </c>
       <c r="Q4">
-        <v>58.31130988116271</v>
+        <v>75.51464585897764</v>
       </c>
       <c r="R4">
-        <v>58.31130988116271</v>
+        <v>679.6318127307987</v>
       </c>
       <c r="S4">
-        <v>0.004481992686577824</v>
+        <v>0.004689914333786806</v>
       </c>
       <c r="T4">
-        <v>0.004481992686577824</v>
+        <v>0.005618152944247929</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.8308434055199</v>
+        <v>3.402403</v>
       </c>
       <c r="H5">
-        <v>2.8308434055199</v>
+        <v>10.207209</v>
       </c>
       <c r="I5">
-        <v>0.02992460753882211</v>
+        <v>0.03316898713485919</v>
       </c>
       <c r="J5">
-        <v>0.02992460753882211</v>
+        <v>0.03864740487441061</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>33.9151333062663</v>
+        <v>37.51216133333333</v>
       </c>
       <c r="N5">
-        <v>33.9151333062663</v>
+        <v>112.536484</v>
       </c>
       <c r="O5">
-        <v>0.2466035120255234</v>
+        <v>0.2389787857941174</v>
       </c>
       <c r="P5">
-        <v>0.2466035120255234</v>
+        <v>0.2456970098971044</v>
       </c>
       <c r="Q5">
-        <v>96.00843146737228</v>
+        <v>127.6314902570173</v>
       </c>
       <c r="R5">
-        <v>96.00843146737228</v>
+        <v>1148.683412313156</v>
       </c>
       <c r="S5">
-        <v>0.007379513315058985</v>
+        <v>0.00792668427150935</v>
       </c>
       <c r="T5">
-        <v>0.007379513315058985</v>
+        <v>0.009495551817925465</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.8308434055199</v>
+        <v>3.402403</v>
       </c>
       <c r="H6">
-        <v>2.8308434055199</v>
+        <v>10.207209</v>
       </c>
       <c r="I6">
-        <v>0.02992460753882211</v>
+        <v>0.03316898713485919</v>
       </c>
       <c r="J6">
-        <v>0.02992460753882211</v>
+        <v>0.03864740487441061</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.2817264273563</v>
+        <v>12.8762265</v>
       </c>
       <c r="N6">
-        <v>10.2817264273563</v>
+        <v>25.752453</v>
       </c>
       <c r="O6">
-        <v>0.07476042696854827</v>
+        <v>0.08203059661736112</v>
       </c>
       <c r="P6">
-        <v>0.07476042696854827</v>
+        <v>0.05622443917490542</v>
       </c>
       <c r="Q6">
-        <v>29.10595745424127</v>
+        <v>43.8101116722795</v>
       </c>
       <c r="R6">
-        <v>29.10595745424127</v>
+        <v>262.860670033677</v>
       </c>
       <c r="S6">
-        <v>0.002237176436468579</v>
+        <v>0.002720871803866075</v>
       </c>
       <c r="T6">
-        <v>0.002237176436468579</v>
+        <v>0.002172928664629242</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>45.1378424541274</v>
+        <v>49.50633933333334</v>
       </c>
       <c r="H7">
-        <v>45.1378424541274</v>
+        <v>148.519018</v>
       </c>
       <c r="I7">
-        <v>0.4771483360595412</v>
+        <v>0.4826221739286343</v>
       </c>
       <c r="J7">
-        <v>0.4771483360595412</v>
+        <v>0.5623353671112131</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.9904444842906</v>
+        <v>33.211442</v>
       </c>
       <c r="N7">
-        <v>25.9904444842906</v>
+        <v>99.634326</v>
       </c>
       <c r="O7">
-        <v>0.1889815626272723</v>
+        <v>0.211580186305583</v>
       </c>
       <c r="P7">
-        <v>0.1889815626272723</v>
+        <v>0.2175281749633597</v>
       </c>
       <c r="Q7">
-        <v>1173.152588444653</v>
+        <v>1644.176917401319</v>
       </c>
       <c r="R7">
-        <v>1173.152588444653</v>
+        <v>14797.59225661187</v>
       </c>
       <c r="S7">
-        <v>0.09017223815353498</v>
+        <v>0.1021132894750259</v>
       </c>
       <c r="T7">
-        <v>0.09017223815353498</v>
+        <v>0.1223237861250531</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>45.1378424541274</v>
+        <v>49.50633933333334</v>
       </c>
       <c r="H8">
-        <v>45.1378424541274</v>
+        <v>148.519018</v>
       </c>
       <c r="I8">
-        <v>0.4771483360595412</v>
+        <v>0.4826221739286343</v>
       </c>
       <c r="J8">
-        <v>0.4771483360595412</v>
+        <v>0.5623353671112131</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>46.7431270360019</v>
+        <v>51.17424933333334</v>
       </c>
       <c r="N8">
-        <v>46.7431270360019</v>
+        <v>153.522748</v>
       </c>
       <c r="O8">
-        <v>0.339878342391875</v>
+        <v>0.3260158715178649</v>
       </c>
       <c r="P8">
-        <v>0.339878342391875</v>
+        <v>0.3351809012869699</v>
       </c>
       <c r="Q8">
-        <v>2109.883903964317</v>
+        <v>2533.449752624607</v>
       </c>
       <c r="R8">
-        <v>2109.883903964317</v>
+        <v>22801.04777362147</v>
       </c>
       <c r="S8">
-        <v>0.1621723855349582</v>
+        <v>0.1573424886471903</v>
       </c>
       <c r="T8">
-        <v>0.1621723855349582</v>
+        <v>0.1884840751738755</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>45.1378424541274</v>
+        <v>49.50633933333334</v>
       </c>
       <c r="H9">
-        <v>45.1378424541274</v>
+        <v>148.519018</v>
       </c>
       <c r="I9">
-        <v>0.4771483360595412</v>
+        <v>0.4826221739286343</v>
       </c>
       <c r="J9">
-        <v>0.4771483360595412</v>
+        <v>0.5623353671112131</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.5985642891658</v>
+        <v>22.19450366666666</v>
       </c>
       <c r="N9">
-        <v>20.5985642891658</v>
+        <v>66.58351099999999</v>
       </c>
       <c r="O9">
-        <v>0.149776155986781</v>
+        <v>0.1413945597650736</v>
       </c>
       <c r="P9">
-        <v>0.149776155986781</v>
+        <v>0.1453694746776606</v>
       </c>
       <c r="Q9">
-        <v>929.7747496655807</v>
+        <v>1098.768629856911</v>
       </c>
       <c r="R9">
-        <v>929.7747496655807</v>
+        <v>9888.917668712198</v>
       </c>
       <c r="S9">
-        <v>0.07146544361048686</v>
+        <v>0.06824014981550204</v>
       </c>
       <c r="T9">
-        <v>0.07146544361048686</v>
+        <v>0.08174639690962647</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>45.1378424541274</v>
+        <v>49.50633933333334</v>
       </c>
       <c r="H10">
-        <v>45.1378424541274</v>
+        <v>148.519018</v>
       </c>
       <c r="I10">
-        <v>0.4771483360595412</v>
+        <v>0.4826221739286343</v>
       </c>
       <c r="J10">
-        <v>0.4771483360595412</v>
+        <v>0.5623353671112131</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.9151333062663</v>
+        <v>37.51216133333333</v>
       </c>
       <c r="N10">
-        <v>33.9151333062663</v>
+        <v>112.536484</v>
       </c>
       <c r="O10">
-        <v>0.2466035120255234</v>
+        <v>0.2389787857941174</v>
       </c>
       <c r="P10">
-        <v>0.2466035120255234</v>
+        <v>0.2456970098971044</v>
       </c>
       <c r="Q10">
-        <v>1530.855943988977</v>
+        <v>1857.089788094746</v>
       </c>
       <c r="R10">
-        <v>1530.855943988977</v>
+        <v>16713.80809285271</v>
       </c>
       <c r="S10">
-        <v>0.1176664554294175</v>
+        <v>0.1153364611227823</v>
       </c>
       <c r="T10">
-        <v>0.1176664554294175</v>
+        <v>0.1381641182586156</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>45.1378424541274</v>
+        <v>49.50633933333334</v>
       </c>
       <c r="H11">
-        <v>45.1378424541274</v>
+        <v>148.519018</v>
       </c>
       <c r="I11">
-        <v>0.4771483360595412</v>
+        <v>0.4826221739286343</v>
       </c>
       <c r="J11">
-        <v>0.4771483360595412</v>
+        <v>0.5623353671112131</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.2817264273563</v>
+        <v>12.8762265</v>
       </c>
       <c r="N11">
-        <v>10.2817264273563</v>
+        <v>25.752453</v>
       </c>
       <c r="O11">
-        <v>0.07476042696854827</v>
+        <v>0.08203059661736112</v>
       </c>
       <c r="P11">
-        <v>0.07476042696854827</v>
+        <v>0.05622443917490542</v>
       </c>
       <c r="Q11">
-        <v>464.0949476344469</v>
+        <v>637.4548384418591</v>
       </c>
       <c r="R11">
-        <v>464.0949476344469</v>
+        <v>3824.729030651155</v>
       </c>
       <c r="S11">
-        <v>0.03567181333114366</v>
+        <v>0.03958978486813369</v>
       </c>
       <c r="T11">
-        <v>0.03567181333114366</v>
+        <v>0.03161699064404251</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.48643395509596</v>
+        <v>2.620102333333334</v>
       </c>
       <c r="H12">
-        <v>2.48643395509596</v>
+        <v>7.860307000000001</v>
       </c>
       <c r="I12">
-        <v>0.02628388420651013</v>
+        <v>0.02554257699230452</v>
       </c>
       <c r="J12">
-        <v>0.02628388420651013</v>
+        <v>0.0297613644499847</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.9904444842906</v>
+        <v>33.211442</v>
       </c>
       <c r="N12">
-        <v>25.9904444842906</v>
+        <v>99.634326</v>
       </c>
       <c r="O12">
-        <v>0.1889815626272723</v>
+        <v>0.211580186305583</v>
       </c>
       <c r="P12">
-        <v>0.1889815626272723</v>
+        <v>0.2175281749633597</v>
       </c>
       <c r="Q12">
-        <v>64.62352367377665</v>
+        <v>87.01737667756467</v>
       </c>
       <c r="R12">
-        <v>64.62352367377665</v>
+        <v>783.1563900980821</v>
       </c>
       <c r="S12">
-        <v>0.004967169509260567</v>
+        <v>0.005404303198756489</v>
       </c>
       <c r="T12">
-        <v>0.004967169509260567</v>
+        <v>0.006473935293224585</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.48643395509596</v>
+        <v>2.620102333333334</v>
       </c>
       <c r="H13">
-        <v>2.48643395509596</v>
+        <v>7.860307000000001</v>
       </c>
       <c r="I13">
-        <v>0.02628388420651013</v>
+        <v>0.02554257699230452</v>
       </c>
       <c r="J13">
-        <v>0.02628388420651013</v>
+        <v>0.0297613644499847</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>46.7431270360019</v>
+        <v>51.17424933333334</v>
       </c>
       <c r="N13">
-        <v>46.7431270360019</v>
+        <v>153.522748</v>
       </c>
       <c r="O13">
-        <v>0.339878342391875</v>
+        <v>0.3260158715178649</v>
       </c>
       <c r="P13">
-        <v>0.339878342391875</v>
+        <v>0.3351809012869699</v>
       </c>
       <c r="Q13">
-        <v>116.2236982296791</v>
+        <v>134.0817700848485</v>
       </c>
       <c r="R13">
-        <v>116.2236982296791</v>
+        <v>1206.735930763636</v>
       </c>
       <c r="S13">
-        <v>0.008933322995728646</v>
+        <v>0.008327285498958325</v>
       </c>
       <c r="T13">
-        <v>0.008933322995728646</v>
+        <v>0.009975440959875858</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.48643395509596</v>
+        <v>2.620102333333334</v>
       </c>
       <c r="H14">
-        <v>2.48643395509596</v>
+        <v>7.860307000000001</v>
       </c>
       <c r="I14">
-        <v>0.02628388420651013</v>
+        <v>0.02554257699230452</v>
       </c>
       <c r="J14">
-        <v>0.02628388420651013</v>
+        <v>0.0297613644499847</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>20.5985642891658</v>
+        <v>22.19450366666666</v>
       </c>
       <c r="N14">
-        <v>20.5985642891658</v>
+        <v>66.58351099999999</v>
       </c>
       <c r="O14">
-        <v>0.149776155986781</v>
+        <v>0.1413945597650736</v>
       </c>
       <c r="P14">
-        <v>0.149776155986781</v>
+        <v>0.1453694746776606</v>
       </c>
       <c r="Q14">
-        <v>51.21696967480892</v>
+        <v>58.15187084420855</v>
       </c>
       <c r="R14">
-        <v>51.21696967480892</v>
+        <v>523.366837597877</v>
       </c>
       <c r="S14">
-        <v>0.003936699140852751</v>
+        <v>0.003611581429092397</v>
       </c>
       <c r="T14">
-        <v>0.003936699140852751</v>
+        <v>0.004326393915784679</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.48643395509596</v>
+        <v>2.620102333333334</v>
       </c>
       <c r="H15">
-        <v>2.48643395509596</v>
+        <v>7.860307000000001</v>
       </c>
       <c r="I15">
-        <v>0.02628388420651013</v>
+        <v>0.02554257699230452</v>
       </c>
       <c r="J15">
-        <v>0.02628388420651013</v>
+        <v>0.0297613644499847</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>33.9151333062663</v>
+        <v>37.51216133333333</v>
       </c>
       <c r="N15">
-        <v>33.9151333062663</v>
+        <v>112.536484</v>
       </c>
       <c r="O15">
-        <v>0.2466035120255234</v>
+        <v>0.2389787857941174</v>
       </c>
       <c r="P15">
-        <v>0.2466035120255234</v>
+        <v>0.2456970098971044</v>
       </c>
       <c r="Q15">
-        <v>84.32773904430644</v>
+        <v>98.28570143784312</v>
       </c>
       <c r="R15">
-        <v>84.32773904430644</v>
+        <v>884.5713129405881</v>
       </c>
       <c r="S15">
-        <v>0.006481698154997583</v>
+        <v>0.006104134035673693</v>
       </c>
       <c r="T15">
-        <v>0.006481698154997583</v>
+        <v>0.007312278255819223</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.48643395509596</v>
+        <v>2.620102333333334</v>
       </c>
       <c r="H16">
-        <v>2.48643395509596</v>
+        <v>7.860307000000001</v>
       </c>
       <c r="I16">
-        <v>0.02628388420651013</v>
+        <v>0.02554257699230452</v>
       </c>
       <c r="J16">
-        <v>0.02628388420651013</v>
+        <v>0.0297613644499847</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>10.2817264273563</v>
+        <v>12.8762265</v>
       </c>
       <c r="N16">
-        <v>10.2817264273563</v>
+        <v>25.752453</v>
       </c>
       <c r="O16">
-        <v>0.07476042696854827</v>
+        <v>0.08203059661736112</v>
       </c>
       <c r="P16">
-        <v>0.07476042696854827</v>
+        <v>0.05622443917490542</v>
       </c>
       <c r="Q16">
-        <v>25.56483370598618</v>
+        <v>33.73703109717851</v>
       </c>
       <c r="R16">
-        <v>25.56483370598618</v>
+        <v>202.422186583071</v>
       </c>
       <c r="S16">
-        <v>0.001964994405670579</v>
+        <v>0.002095272829823621</v>
       </c>
       <c r="T16">
-        <v>0.001964994405670579</v>
+        <v>0.001673316025280357</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.26410576739685</v>
+        <v>3.426588666666667</v>
       </c>
       <c r="H17">
-        <v>3.26410576739685</v>
+        <v>10.279766</v>
       </c>
       <c r="I17">
-        <v>0.0345045875247266</v>
+        <v>0.03340476580849505</v>
       </c>
       <c r="J17">
-        <v>0.0345045875247266</v>
+        <v>0.03892212637325252</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.9904444842906</v>
+        <v>33.211442</v>
       </c>
       <c r="N17">
-        <v>25.9904444842906</v>
+        <v>99.634326</v>
       </c>
       <c r="O17">
-        <v>0.1889815626272723</v>
+        <v>0.211580186305583</v>
       </c>
       <c r="P17">
-        <v>0.1889815626272723</v>
+        <v>0.2175281749633597</v>
       </c>
       <c r="Q17">
-        <v>84.8355597383806</v>
+        <v>113.8019507608573</v>
       </c>
       <c r="R17">
-        <v>84.8355597383806</v>
+        <v>1024.217556847716</v>
       </c>
       <c r="S17">
-        <v>0.006520730868232319</v>
+        <v>0.007067786573255751</v>
       </c>
       <c r="T17">
-        <v>0.006520730868232319</v>
+        <v>0.008466659115666872</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.26410576739685</v>
+        <v>3.426588666666667</v>
       </c>
       <c r="H18">
-        <v>3.26410576739685</v>
+        <v>10.279766</v>
       </c>
       <c r="I18">
-        <v>0.0345045875247266</v>
+        <v>0.03340476580849505</v>
       </c>
       <c r="J18">
-        <v>0.0345045875247266</v>
+        <v>0.03892212637325252</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>46.7431270360019</v>
+        <v>51.17424933333334</v>
       </c>
       <c r="N18">
-        <v>46.7431270360019</v>
+        <v>153.522748</v>
       </c>
       <c r="O18">
-        <v>0.339878342391875</v>
+        <v>0.3260158715178649</v>
       </c>
       <c r="P18">
-        <v>0.339878342391875</v>
+        <v>0.3351809012869699</v>
       </c>
       <c r="Q18">
-        <v>152.5745105443774</v>
+        <v>175.3531027907742</v>
       </c>
       <c r="R18">
-        <v>152.5745105443774</v>
+        <v>1578.177925116968</v>
       </c>
       <c r="S18">
-        <v>0.01172736201281945</v>
+        <v>0.01089048383790669</v>
       </c>
       <c r="T18">
-        <v>0.01172736201281945</v>
+        <v>0.01304595339779212</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.26410576739685</v>
+        <v>3.426588666666667</v>
       </c>
       <c r="H19">
-        <v>3.26410576739685</v>
+        <v>10.279766</v>
       </c>
       <c r="I19">
-        <v>0.0345045875247266</v>
+        <v>0.03340476580849505</v>
       </c>
       <c r="J19">
-        <v>0.0345045875247266</v>
+        <v>0.03892212637325252</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>20.5985642891658</v>
+        <v>22.19450366666666</v>
       </c>
       <c r="N19">
-        <v>20.5985642891658</v>
+        <v>66.58351099999999</v>
       </c>
       <c r="O19">
-        <v>0.149776155986781</v>
+        <v>0.1413945597650736</v>
       </c>
       <c r="P19">
-        <v>0.149776155986781</v>
+        <v>0.1453694746776606</v>
       </c>
       <c r="Q19">
-        <v>67.23589249636088</v>
+        <v>76.05143472649176</v>
       </c>
       <c r="R19">
-        <v>67.23589249636088</v>
+        <v>684.4629125384259</v>
       </c>
       <c r="S19">
-        <v>0.00516796448336299</v>
+        <v>0.004723252155547543</v>
       </c>
       <c r="T19">
-        <v>0.00516796448336299</v>
+        <v>0.005658089064217238</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.26410576739685</v>
+        <v>3.426588666666667</v>
       </c>
       <c r="H20">
-        <v>3.26410576739685</v>
+        <v>10.279766</v>
       </c>
       <c r="I20">
-        <v>0.0345045875247266</v>
+        <v>0.03340476580849505</v>
       </c>
       <c r="J20">
-        <v>0.0345045875247266</v>
+        <v>0.03892212637325252</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>33.9151333062663</v>
+        <v>37.51216133333333</v>
       </c>
       <c r="N20">
-        <v>33.9151333062663</v>
+        <v>112.536484</v>
       </c>
       <c r="O20">
-        <v>0.2466035120255234</v>
+        <v>0.2389787857941174</v>
       </c>
       <c r="P20">
-        <v>0.2466035120255234</v>
+        <v>0.2456970098971044</v>
       </c>
       <c r="Q20">
-        <v>110.7025822270168</v>
+        <v>128.5387468869716</v>
       </c>
       <c r="R20">
-        <v>110.7025822270168</v>
+        <v>1156.848721982744</v>
       </c>
       <c r="S20">
-        <v>0.00850895246458964</v>
+        <v>0.007983030372650994</v>
       </c>
       <c r="T20">
-        <v>0.00850895246458964</v>
+        <v>0.009563050068745374</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.26410576739685</v>
+        <v>3.426588666666667</v>
       </c>
       <c r="H21">
-        <v>3.26410576739685</v>
+        <v>10.279766</v>
       </c>
       <c r="I21">
-        <v>0.0345045875247266</v>
+        <v>0.03340476580849505</v>
       </c>
       <c r="J21">
-        <v>0.0345045875247266</v>
+        <v>0.03892212637325252</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>10.2817264273563</v>
+        <v>12.8762265</v>
       </c>
       <c r="N21">
-        <v>10.2817264273563</v>
+        <v>25.752453</v>
       </c>
       <c r="O21">
-        <v>0.07476042696854827</v>
+        <v>0.08203059661736112</v>
       </c>
       <c r="P21">
-        <v>0.07476042696854827</v>
+        <v>0.05622443917490542</v>
       </c>
       <c r="Q21">
-        <v>33.56064253033031</v>
+        <v>44.12153179433301</v>
       </c>
       <c r="R21">
-        <v>33.56064253033031</v>
+        <v>264.7291907659981</v>
       </c>
       <c r="S21">
-        <v>0.002579577695722205</v>
+        <v>0.002740212869134075</v>
       </c>
       <c r="T21">
-        <v>0.002579577695722205</v>
+        <v>0.002188374726830918</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>40.879956774633</v>
+        <v>43.622405</v>
       </c>
       <c r="H22">
-        <v>40.879956774633</v>
+        <v>87.24481</v>
       </c>
       <c r="I22">
-        <v>0.4321385846704</v>
+        <v>0.4252614961357069</v>
       </c>
       <c r="J22">
-        <v>0.4321385846704</v>
+        <v>0.3303337371911389</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>25.9904444842906</v>
+        <v>33.211442</v>
       </c>
       <c r="N22">
-        <v>25.9904444842906</v>
+        <v>99.634326</v>
       </c>
       <c r="O22">
-        <v>0.1889815626272723</v>
+        <v>0.211580186305583</v>
       </c>
       <c r="P22">
-        <v>0.1889815626272723</v>
+        <v>0.2175281749633597</v>
       </c>
       <c r="Q22">
-        <v>1062.488247071298</v>
+        <v>1448.76297355801</v>
       </c>
       <c r="R22">
-        <v>1062.488247071298</v>
+        <v>8692.57784134806</v>
       </c>
       <c r="S22">
-        <v>0.08166622500255001</v>
+        <v>0.08997690658098381</v>
       </c>
       <c r="T22">
-        <v>0.08166622500255001</v>
+        <v>0.07185689498001455</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>40.879956774633</v>
+        <v>43.622405</v>
       </c>
       <c r="H23">
-        <v>40.879956774633</v>
+        <v>87.24481</v>
       </c>
       <c r="I23">
-        <v>0.4321385846704</v>
+        <v>0.4252614961357069</v>
       </c>
       <c r="J23">
-        <v>0.4321385846704</v>
+        <v>0.3303337371911389</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>46.7431270360019</v>
+        <v>51.17424933333334</v>
       </c>
       <c r="N23">
-        <v>46.7431270360019</v>
+        <v>153.522748</v>
       </c>
       <c r="O23">
-        <v>0.339878342391875</v>
+        <v>0.3260158715178649</v>
       </c>
       <c r="P23">
-        <v>0.339878342391875</v>
+        <v>0.3351809012869699</v>
       </c>
       <c r="Q23">
-        <v>1910.857012742937</v>
+        <v>2232.343829989647</v>
       </c>
       <c r="R23">
-        <v>1910.857012742937</v>
+        <v>13394.06297993788</v>
       </c>
       <c r="S23">
-        <v>0.1468745458413465</v>
+        <v>0.1386419972856736</v>
       </c>
       <c r="T23">
-        <v>0.1468745458413465</v>
+        <v>0.110721559757219</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>40.879956774633</v>
+        <v>43.622405</v>
       </c>
       <c r="H24">
-        <v>40.879956774633</v>
+        <v>87.24481</v>
       </c>
       <c r="I24">
-        <v>0.4321385846704</v>
+        <v>0.4252614961357069</v>
       </c>
       <c r="J24">
-        <v>0.4321385846704</v>
+        <v>0.3303337371911389</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>20.5985642891658</v>
+        <v>22.19450366666666</v>
       </c>
       <c r="N24">
-        <v>20.5985642891658</v>
+        <v>66.58351099999999</v>
       </c>
       <c r="O24">
-        <v>0.149776155986781</v>
+        <v>0.1413945597650736</v>
       </c>
       <c r="P24">
-        <v>0.149776155986781</v>
+        <v>0.1453694746776606</v>
       </c>
       <c r="Q24">
-        <v>842.0684177605968</v>
+        <v>968.1776277213181</v>
       </c>
       <c r="R24">
-        <v>842.0684177605968</v>
+        <v>5809.065766327909</v>
       </c>
       <c r="S24">
-        <v>0.06472405606550061</v>
+        <v>0.06012966203114484</v>
       </c>
       <c r="T24">
-        <v>0.06472405606550061</v>
+        <v>0.04802044184378425</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>40.879956774633</v>
+        <v>43.622405</v>
       </c>
       <c r="H25">
-        <v>40.879956774633</v>
+        <v>87.24481</v>
       </c>
       <c r="I25">
-        <v>0.4321385846704</v>
+        <v>0.4252614961357069</v>
       </c>
       <c r="J25">
-        <v>0.4321385846704</v>
+        <v>0.3303337371911389</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>33.9151333062663</v>
+        <v>37.51216133333333</v>
       </c>
       <c r="N25">
-        <v>33.9151333062663</v>
+        <v>112.536484</v>
       </c>
       <c r="O25">
-        <v>0.2466035120255234</v>
+        <v>0.2389787857941174</v>
       </c>
       <c r="P25">
-        <v>0.2466035120255234</v>
+        <v>0.2456970098971044</v>
       </c>
       <c r="Q25">
-        <v>1386.449183566082</v>
+        <v>1636.370694108007</v>
       </c>
       <c r="R25">
-        <v>1386.449183566082</v>
+        <v>9818.22416464804</v>
       </c>
       <c r="S25">
-        <v>0.1065668926614596</v>
+        <v>0.1016284759915009</v>
       </c>
       <c r="T25">
-        <v>0.1065668926614596</v>
+        <v>0.08116201149599875</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>40.879956774633</v>
+        <v>43.622405</v>
       </c>
       <c r="H26">
-        <v>40.879956774633</v>
+        <v>87.24481</v>
       </c>
       <c r="I26">
-        <v>0.4321385846704</v>
+        <v>0.4252614961357069</v>
       </c>
       <c r="J26">
-        <v>0.4321385846704</v>
+        <v>0.3303337371911389</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>10.2817264273563</v>
+        <v>12.8762265</v>
       </c>
       <c r="N26">
-        <v>10.2817264273563</v>
+        <v>25.752453</v>
       </c>
       <c r="O26">
-        <v>0.07476042696854827</v>
+        <v>0.08203059661736112</v>
       </c>
       <c r="P26">
-        <v>0.07476042696854827</v>
+        <v>0.05622443917490542</v>
       </c>
       <c r="Q26">
-        <v>420.3165319189274</v>
+        <v>561.6919672547326</v>
       </c>
       <c r="R26">
-        <v>420.3165319189274</v>
+        <v>2246.76786901893</v>
       </c>
       <c r="S26">
-        <v>0.03230686509954325</v>
+        <v>0.03488445424640364</v>
       </c>
       <c r="T26">
-        <v>0.03230686509954325</v>
+        <v>0.01857282911412238</v>
       </c>
     </row>
   </sheetData>
